--- a/leagueStats/leagueStats_TOP5_FRA_minute.xlsx
+++ b/leagueStats/leagueStats_TOP5_FRA_minute.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O199"/>
+  <dimension ref="A1:O226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10603,6 +10603,1383 @@
         <v>0</v>
       </c>
     </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Stade Rennais</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Stade de Reims</t>
+        </is>
+      </c>
+      <c r="D200" t="n">
+        <v>1</v>
+      </c>
+      <c r="E200" t="n">
+        <v>0</v>
+      </c>
+      <c r="F200" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="G200" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H200" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
+      <c r="K200" t="n">
+        <v>0</v>
+      </c>
+      <c r="L200" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="M200" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="N200" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="O200" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Auxerre</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Olympique de Marseille</t>
+        </is>
+      </c>
+      <c r="D201" t="n">
+        <v>3</v>
+      </c>
+      <c r="E201" t="n">
+        <v>0</v>
+      </c>
+      <c r="F201" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="G201" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
+      <c r="K201" t="n">
+        <v>0</v>
+      </c>
+      <c r="L201" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="M201" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="N201" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="O201" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Lille</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>AS Monaco</t>
+        </is>
+      </c>
+      <c r="D202" t="n">
+        <v>2</v>
+      </c>
+      <c r="E202" t="n">
+        <v>1</v>
+      </c>
+      <c r="F202" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="G202" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="H202" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="I202" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
+      <c r="K202" t="n">
+        <v>0</v>
+      </c>
+      <c r="L202" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="M202" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="N202" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="O202" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Saint-Étienne</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Angers</t>
+        </is>
+      </c>
+      <c r="D203" t="n">
+        <v>3</v>
+      </c>
+      <c r="E203" t="n">
+        <v>3</v>
+      </c>
+      <c r="F203" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G203" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="H203" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="I203" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="J203" t="n">
+        <v>1</v>
+      </c>
+      <c r="K203" t="n">
+        <v>0</v>
+      </c>
+      <c r="L203" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="M203" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="N203" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="O203" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Le Havre</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Toulouse</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>1</v>
+      </c>
+      <c r="E204" t="n">
+        <v>4</v>
+      </c>
+      <c r="F204" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="G204" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="I204" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
+      <c r="K204" t="n">
+        <v>0</v>
+      </c>
+      <c r="L204" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="M204" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N204" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="O204" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Nantes</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>RC Lens</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>3</v>
+      </c>
+      <c r="E205" t="n">
+        <v>1</v>
+      </c>
+      <c r="F205" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="G205" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H205" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="I205" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="J205" t="n">
+        <v>3</v>
+      </c>
+      <c r="K205" t="n">
+        <v>0</v>
+      </c>
+      <c r="L205" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="M205" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="N205" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="O205" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Montpellier</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>2</v>
+      </c>
+      <c r="E206" t="n">
+        <v>0</v>
+      </c>
+      <c r="F206" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="G206" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="H206" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="J206" t="n">
+        <v>1</v>
+      </c>
+      <c r="K206" t="n">
+        <v>0</v>
+      </c>
+      <c r="L206" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="M206" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="N206" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="O206" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Olympique Lyonnais</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Paris Saint-Germain</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>2</v>
+      </c>
+      <c r="E207" t="n">
+        <v>3</v>
+      </c>
+      <c r="F207" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G207" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="H207" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="I207" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
+      <c r="K207" t="n">
+        <v>0</v>
+      </c>
+      <c r="L207" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M207" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="N207" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="O207" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>RC Strasbourg</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Stade Brestois</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>0</v>
+      </c>
+      <c r="E208" t="n">
+        <v>0</v>
+      </c>
+      <c r="F208" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G208" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
+      <c r="K208" t="n">
+        <v>0</v>
+      </c>
+      <c r="L208" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="M208" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="N208" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="O208" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>AS Monaco</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Stade de Reims</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>3</v>
+      </c>
+      <c r="E209" t="n">
+        <v>0</v>
+      </c>
+      <c r="F209" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="G209" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="H209" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="J209" t="n">
+        <v>2</v>
+      </c>
+      <c r="K209" t="n">
+        <v>0</v>
+      </c>
+      <c r="L209" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="M209" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="N209" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="O209" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Paris Saint-Germain</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Lille</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>4</v>
+      </c>
+      <c r="E210" t="n">
+        <v>1</v>
+      </c>
+      <c r="F210" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="G210" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H210" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
+      <c r="K210" t="n">
+        <v>0</v>
+      </c>
+      <c r="L210" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="M210" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="N210" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="O210" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>RC Lens</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Le Havre</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>3</v>
+      </c>
+      <c r="E211" t="n">
+        <v>4</v>
+      </c>
+      <c r="F211" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="G211" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="H211" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="I211" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="M211" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="N211" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="O211" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Saint-Étienne</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>1</v>
+      </c>
+      <c r="E212" t="n">
+        <v>3</v>
+      </c>
+      <c r="F212" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="G212" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I212" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="M212" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="N212" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="O212" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Angers</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Toulouse</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>0</v>
+      </c>
+      <c r="E213" t="n">
+        <v>4</v>
+      </c>
+      <c r="F213" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G213" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I213" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="M213" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="N213" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="O213" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Auxerre</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>RC Strasbourg</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>0</v>
+      </c>
+      <c r="E214" t="n">
+        <v>1</v>
+      </c>
+      <c r="F214" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="G214" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="H214" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
+      <c r="K214" t="n">
+        <v>0</v>
+      </c>
+      <c r="L214" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="M214" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N214" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="O214" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Montpellier</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Stade Rennais</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>0</v>
+      </c>
+      <c r="E215" t="n">
+        <v>4</v>
+      </c>
+      <c r="F215" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="G215" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="H215" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="I215" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="M215" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="N215" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="O215" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Olympique Lyonnais</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Stade Brestois</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>2</v>
+      </c>
+      <c r="E216" t="n">
+        <v>1</v>
+      </c>
+      <c r="F216" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="G216" t="n">
+        <v>2</v>
+      </c>
+      <c r="H216" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="I216" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="J216" t="n">
+        <v>1</v>
+      </c>
+      <c r="K216" t="n">
+        <v>0</v>
+      </c>
+      <c r="L216" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="M216" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="N216" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="O216" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Olympique de Marseille</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Nantes</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>2</v>
+      </c>
+      <c r="E217" t="n">
+        <v>0</v>
+      </c>
+      <c r="F217" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="G217" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="H217" t="n">
+        <v>2</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
+      <c r="K217" t="n">
+        <v>0</v>
+      </c>
+      <c r="L217" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="M217" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="N217" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="O217" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Toulouse</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>AS Monaco</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>1</v>
+      </c>
+      <c r="E218" t="n">
+        <v>1</v>
+      </c>
+      <c r="F218" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="G218" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="I218" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="M218" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="N218" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="O218" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Lille</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Montpellier</t>
+        </is>
+      </c>
+      <c r="D219" t="n">
+        <v>1</v>
+      </c>
+      <c r="E219" t="n">
+        <v>0</v>
+      </c>
+      <c r="F219" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="G219" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H219" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="I219" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="J219" t="n">
+        <v>1</v>
+      </c>
+      <c r="K219" t="n">
+        <v>0</v>
+      </c>
+      <c r="L219" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="M219" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="N219" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="O219" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Olympique de Marseille</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>RC Lens</t>
+        </is>
+      </c>
+      <c r="D220" t="n">
+        <v>0</v>
+      </c>
+      <c r="E220" t="n">
+        <v>1</v>
+      </c>
+      <c r="F220" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="G220" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="H220" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="I220" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
+      <c r="K220" t="n">
+        <v>0</v>
+      </c>
+      <c r="L220" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="M220" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="N220" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="O220" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Stade Rennais</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Paris Saint-Germain</t>
+        </is>
+      </c>
+      <c r="D221" t="n">
+        <v>1</v>
+      </c>
+      <c r="E221" t="n">
+        <v>4</v>
+      </c>
+      <c r="F221" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="G221" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="H221" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="I221" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
+      <c r="K221" t="n">
+        <v>0</v>
+      </c>
+      <c r="L221" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="M221" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="N221" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="O221" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Le Havre</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Saint-Étienne</t>
+        </is>
+      </c>
+      <c r="D222" t="n">
+        <v>1</v>
+      </c>
+      <c r="E222" t="n">
+        <v>1</v>
+      </c>
+      <c r="F222" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="G222" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="H222" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="I222" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M222" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="N222" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="O222" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Nantes</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>RC Strasbourg</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v>0</v>
+      </c>
+      <c r="E223" t="n">
+        <v>1</v>
+      </c>
+      <c r="F223" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="G223" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="I223" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
+      <c r="K223" t="n">
+        <v>0</v>
+      </c>
+      <c r="L223" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="M223" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="N223" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="O223" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Olympique Lyonnais</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
+        <v>0</v>
+      </c>
+      <c r="E224" t="n">
+        <v>2</v>
+      </c>
+      <c r="F224" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="G224" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H224" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="I224" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
+      <c r="K224" t="n">
+        <v>0</v>
+      </c>
+      <c r="L224" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="M224" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="N224" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="O224" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Stade Brestois</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>Angers</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
+        <v>2</v>
+      </c>
+      <c r="E225" t="n">
+        <v>0</v>
+      </c>
+      <c r="F225" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="G225" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="H225" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="I225" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="J225" t="n">
+        <v>2</v>
+      </c>
+      <c r="K225" t="n">
+        <v>0</v>
+      </c>
+      <c r="L225" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="M225" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="N225" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="O225" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Stade de Reims</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>Auxerre</t>
+        </is>
+      </c>
+      <c r="D226" t="n">
+        <v>0</v>
+      </c>
+      <c r="E226" t="n">
+        <v>2</v>
+      </c>
+      <c r="F226" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="G226" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="H226" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="I226" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="J226" t="n">
+        <v>0</v>
+      </c>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="M226" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="N226" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="O226" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
